--- a/Rock_Abbreviations_Table.xlsx
+++ b/Rock_Abbreviations_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peten\OneDrive\Desktop\Torianne\Geoviz\Project1\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670630E2-A789-4C3E-8B41-59BBC39E61C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877E9660-DE7D-4F05-8980-AF84C138D0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{5BFB4D29-EC23-4680-A20F-9BE503346805}"/>
   </bookViews>
@@ -380,9 +380,6 @@
     <t>Chinle Formation (Late Triassic) and Maroon Formation, undivided (Late Pennsylvanian and Early Permian)</t>
   </si>
   <si>
-    <t>PLPmIs</t>
-  </si>
-  <si>
     <t>Maroon Formation (Late Pennsylvanian and Early Permian)</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>Felsic gneiss (Early Proterozoic)</t>
+  </si>
+  <si>
+    <t>PPm</t>
   </si>
 </sst>
 </file>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086ADDA4-9733-42DF-B935-037E9FF7F595}">
   <dimension ref="B1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C76"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,154 +1344,154 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
         <v>114</v>
-      </c>
-      <c r="C58" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
         <v>118</v>
-      </c>
-      <c r="C60" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
         <v>120</v>
-      </c>
-      <c r="C61" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
         <v>122</v>
-      </c>
-      <c r="C62" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
         <v>124</v>
-      </c>
-      <c r="C63" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
         <v>126</v>
-      </c>
-      <c r="C64" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
         <v>128</v>
-      </c>
-      <c r="C65" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
         <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
         <v>132</v>
-      </c>
-      <c r="C67" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
         <v>134</v>
-      </c>
-      <c r="C68" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
         <v>136</v>
-      </c>
-      <c r="C69" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
         <v>138</v>
-      </c>
-      <c r="C70" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
         <v>140</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
         <v>142</v>
-      </c>
-      <c r="C72" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
         <v>144</v>
-      </c>
-      <c r="C73" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
         <v>146</v>
-      </c>
-      <c r="C74" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
         <v>148</v>
-      </c>
-      <c r="C75" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
         <v>150</v>
-      </c>
-      <c r="C76" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1503,6 +1503,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3b591887-8056-4279-a3a3-0fdf9d138c39" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099418630CB074E4BB38004593E5867D0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5a81f8c18f3795450db039ce04609da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b591887-8056-4279-a3a3-0fdf9d138c39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45d02f39f99284a93d683560c8174504" ns3:_="">
     <xsd:import namespace="3b591887-8056-4279-a3a3-0fdf9d138c39"/>
@@ -1684,24 +1701,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017838BF-F2DD-48C8-8F84-84FD8C5C3964}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3b591887-8056-4279-a3a3-0fdf9d138c39"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3b591887-8056-4279-a3a3-0fdf9d138c39" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4397BA7-B146-4B2D-BAA7-C4A15616E57E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F513ED06-8C96-480F-B7CE-745629D49C72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1717,28 +1741,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4397BA7-B146-4B2D-BAA7-C4A15616E57E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017838BF-F2DD-48C8-8F84-84FD8C5C3964}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3b591887-8056-4279-a3a3-0fdf9d138c39"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>